--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2349032.449801062</v>
+        <v>2344774.184147826</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9598184.93740941</v>
+        <v>9598184.937409412</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.3310866359322</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916698</v>
+        <v>1.360597680916612</v>
       </c>
       <c r="S2" t="n">
         <v>155.1464635459284</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
         <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>260.3522390352929</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>331.3454077022496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>171.2036947366277</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -755,10 +755,10 @@
         <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
-        <v>100.018744405379</v>
+        <v>98.51394015369118</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370742</v>
+        <v>45.84481919370739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353362</v>
+        <v>21.62032152353356</v>
       </c>
       <c r="S3" t="n">
-        <v>148.1873837356351</v>
+        <v>148.187383735635</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4144181712553</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2611846170395</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>65.95101488576657</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>53.72197601331758</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>291.1236505259786</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>71.5447928475475</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5.848498934525047</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>65.64892725844096</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>204.0601467104674</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1186,22 +1186,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.700615068623</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>14.48067867927855</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>159.4196823148319</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>141.6930519056953</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4.019807611472036</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>27.34574348918394</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>177.9413471369467</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2013,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>35.88641949135634</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>78.89395497654093</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>175.8628696806976</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>70.04554881124335</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>86.88943397770137</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>156.0235370972438</v>
+        <v>240.5320234084492</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>139.1630968205461</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>25.26322697488565</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.11883945937053</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>50.49265242092984</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>211.147499124903</v>
       </c>
       <c r="U40" t="n">
-        <v>185.7223172888152</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>117.8112368377031</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>113.3214422457871</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1557.509364436593</v>
+        <v>1745.386887196183</v>
       </c>
       <c r="C2" t="n">
-        <v>1557.509364436593</v>
+        <v>1745.386887196183</v>
       </c>
       <c r="D2" t="n">
-        <v>1199.243665829842</v>
+        <v>1387.121188589433</v>
       </c>
       <c r="E2" t="n">
-        <v>1199.243665829842</v>
+        <v>1001.332935991189</v>
       </c>
       <c r="F2" t="n">
-        <v>788.257761040235</v>
+        <v>590.347031201581</v>
       </c>
       <c r="G2" t="n">
-        <v>371.1481005256731</v>
+        <v>173.2373706870191</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961285</v>
+        <v>173.2373706870191</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>239.520839851238</v>
+        <v>72.11519083088501</v>
       </c>
       <c r="K2" t="n">
-        <v>640.2602765776273</v>
+        <v>151.9506691118216</v>
       </c>
       <c r="L2" t="n">
-        <v>814.1372322107163</v>
+        <v>701.3800037181038</v>
       </c>
       <c r="M2" t="n">
-        <v>1442.089776132338</v>
+        <v>1329.332547639726</v>
       </c>
       <c r="N2" t="n">
-        <v>1632.597796005107</v>
+        <v>1951.178517094875</v>
       </c>
       <c r="O2" t="n">
-        <v>2176.146035202202</v>
+        <v>2494.726756291969</v>
       </c>
       <c r="P2" t="n">
         <v>2602.377499016428</v>
@@ -4360,22 +4360,22 @@
         <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2476.958036347466</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="U2" t="n">
-        <v>2223.264582792537</v>
+        <v>2008.368946827792</v>
       </c>
       <c r="V2" t="n">
-        <v>1892.201695448966</v>
+        <v>1745.386887196183</v>
       </c>
       <c r="W2" t="n">
-        <v>1892.201695448966</v>
+        <v>1745.386887196183</v>
       </c>
       <c r="X2" t="n">
-        <v>1892.201695448966</v>
+        <v>1745.386887196183</v>
       </c>
       <c r="Y2" t="n">
-        <v>1557.509364436593</v>
+        <v>1745.386887196183</v>
       </c>
     </row>
     <row r="3">
@@ -4388,22 +4388,22 @@
         <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123788</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511275</v>
+        <v>641.7429649564932</v>
       </c>
       <c r="E3" t="n">
-        <v>484.025514245672</v>
+        <v>482.5055099510377</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725569</v>
+        <v>335.9709519779227</v>
       </c>
       <c r="G3" t="n">
-        <v>200.037852467983</v>
+        <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
-        <v>99.0088177150749</v>
+        <v>99.00881771507487</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4412,22 +4412,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524139</v>
+        <v>380.276651852414</v>
       </c>
       <c r="L3" t="n">
-        <v>882.1470455900076</v>
+        <v>811.9794026989988</v>
       </c>
       <c r="M3" t="n">
-        <v>1241.641187275397</v>
+        <v>1449.617702133887</v>
       </c>
       <c r="N3" t="n">
-        <v>1437.313937931689</v>
+        <v>1645.29045279018</v>
       </c>
       <c r="O3" t="n">
-        <v>1984.020177892693</v>
+        <v>2191.996692751183</v>
       </c>
       <c r="P3" t="n">
-        <v>2405.797066257506</v>
+        <v>2613.773581115997</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.70091953961285</v>
+        <v>989.5153409857935</v>
       </c>
       <c r="C4" t="n">
-        <v>52.70091953961285</v>
+        <v>820.5791580578866</v>
       </c>
       <c r="D4" t="n">
-        <v>52.70091953961285</v>
+        <v>670.4625186455509</v>
       </c>
       <c r="E4" t="n">
-        <v>52.70091953961285</v>
+        <v>522.5494250631577</v>
       </c>
       <c r="F4" t="n">
-        <v>52.70091953961285</v>
+        <v>375.6594775652474</v>
       </c>
       <c r="G4" t="n">
-        <v>52.70091953961285</v>
+        <v>207.0428185061398</v>
       </c>
       <c r="H4" t="n">
         <v>52.70091953961285</v>
@@ -4491,49 +4491,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131523</v>
+        <v>152.6313247131524</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039129</v>
+        <v>336.0342731039131</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856111</v>
+        <v>539.7960902856113</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066363</v>
+        <v>744.1475233066367</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249418</v>
+        <v>916.8828514249423</v>
       </c>
       <c r="P4" t="n">
         <v>1041.167083351318</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="T4" t="n">
-        <v>818.1088337555527</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="U4" t="n">
-        <v>528.9561220211694</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="V4" t="n">
-        <v>528.9561220211694</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="W4" t="n">
-        <v>462.3389352678699</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="X4" t="n">
-        <v>234.3493843698525</v>
+        <v>989.5153409857935</v>
       </c>
       <c r="Y4" t="n">
-        <v>234.3493843698525</v>
+        <v>989.5153409857935</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.733776870417</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="C5" t="n">
-        <v>837.7712599300055</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="D5" t="n">
-        <v>479.505561323255</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="E5" t="n">
-        <v>479.505561323255</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="F5" t="n">
-        <v>185.4412678626705</v>
+        <v>542.0561688259606</v>
       </c>
       <c r="G5" t="n">
-        <v>172.393890139502</v>
+        <v>124.9683870623881</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
@@ -4570,19 +4570,19 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>1030.215540799241</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M5" t="n">
-        <v>1216.914953624649</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N5" t="n">
-        <v>1844.222621684495</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O5" t="n">
-        <v>2170.746810619753</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4600,19 +4600,19 @@
         <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2264.031077745182</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V5" t="n">
-        <v>1932.968190401611</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W5" t="n">
-        <v>1580.199535131497</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X5" t="n">
-        <v>1206.733776870417</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="Y5" t="n">
-        <v>1206.733776870417</v>
+        <v>953.0420736155681</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>1005.150115568437</v>
+        <v>519.3589218611166</v>
       </c>
       <c r="M6" t="n">
-        <v>1184.647451923042</v>
+        <v>778.7548643839062</v>
       </c>
       <c r="N6" t="n">
-        <v>1836.821331225751</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O6" t="n">
-        <v>2386.257339978474</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P6" t="n">
-        <v>2494.946967505773</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.4258518184669</v>
+        <v>537.5414232216112</v>
       </c>
       <c r="C7" t="n">
-        <v>373.48966889056</v>
+        <v>368.6052402937044</v>
       </c>
       <c r="D7" t="n">
-        <v>223.3730294782243</v>
+        <v>218.4886008813686</v>
       </c>
       <c r="E7" t="n">
-        <v>223.3730294782243</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="F7" t="n">
-        <v>76.4830819803139</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="G7" t="n">
-        <v>76.4830819803139</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="H7" t="n">
-        <v>76.4830819803139</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="I7" t="n">
         <v>70.57550729897547</v>
@@ -4761,16 +4761,16 @@
         <v>1052.635600998958</v>
       </c>
       <c r="V7" t="n">
-        <v>1052.635600998958</v>
+        <v>986.3235532631587</v>
       </c>
       <c r="W7" t="n">
-        <v>763.218430961997</v>
+        <v>986.3235532631587</v>
       </c>
       <c r="X7" t="n">
-        <v>763.218430961997</v>
+        <v>758.3340023651414</v>
       </c>
       <c r="Y7" t="n">
-        <v>542.4258518184669</v>
+        <v>537.5414232216112</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1000.467576692682</v>
+        <v>1113.826147444169</v>
       </c>
       <c r="C8" t="n">
-        <v>1000.467576692682</v>
+        <v>1113.826147444169</v>
       </c>
       <c r="D8" t="n">
-        <v>1000.467576692682</v>
+        <v>1113.826147444169</v>
       </c>
       <c r="E8" t="n">
-        <v>1000.467576692682</v>
+        <v>1113.826147444169</v>
       </c>
       <c r="F8" t="n">
-        <v>589.4816719030746</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G8" t="n">
-        <v>172.393890139502</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H8" t="n">
         <v>172.393890139502</v>
@@ -4807,22 +4807,22 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K8" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L8" t="n">
-        <v>709.3115823537878</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M8" t="n">
-        <v>896.0109951791954</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N8" t="n">
-        <v>1413.39376509937</v>
+        <v>1844.222621684495</v>
       </c>
       <c r="O8" t="n">
-        <v>1960.554969866447</v>
+        <v>2391.383826451573</v>
       </c>
       <c r="P8" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4834,22 +4834,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U8" t="n">
-        <v>2225.139236222622</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V8" t="n">
-        <v>1894.076348879051</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="W8" t="n">
-        <v>1541.307693608937</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="X8" t="n">
-        <v>1167.841935347857</v>
+        <v>1890.565319484102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000.467576692682</v>
+        <v>1500.42598750829</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>238.9679910598655</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>743.329530925984</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1383.874880393089</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N9" t="n">
-        <v>2036.048759695798</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.561072364559</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>363.6940269292658</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="C10" t="n">
-        <v>363.6940269292658</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="D10" t="n">
-        <v>363.6940269292658</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E10" t="n">
-        <v>363.6940269292658</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F10" t="n">
-        <v>363.6940269292658</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4986,28 +4986,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>907.5306915574729</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T10" t="n">
-        <v>907.5306915574729</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>618.3785151351527</v>
+        <v>891.6056188627638</v>
       </c>
       <c r="V10" t="n">
-        <v>363.6940269292658</v>
+        <v>636.9211306568769</v>
       </c>
       <c r="W10" t="n">
-        <v>363.6940269292658</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="X10" t="n">
-        <v>363.6940269292658</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="Y10" t="n">
-        <v>363.6940269292658</v>
+        <v>347.5039606199163</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424045</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424045</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>378.6527890600114</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5272,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5287,40 +5287,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615664</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334537</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673286</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.54608366783</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694715</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740623</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385789</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>2233.355914590556</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>2233.355914590556</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>2567.280686761777</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>2877.307316025034</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>3474.685803651586</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N15" t="n">
-        <v>4102.283767206192</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O15" t="n">
-        <v>4654.193497445479</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P15" t="n">
-        <v>4654.193497445479</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q15" t="n">
-        <v>4654.193497445479</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398592</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301204</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.415660022978</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566163</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.23547033442</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606219</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400686</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635732</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.5772922261123</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>815.6411092982054</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>665.5244698858696</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>517.6113763034765</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>370.7214288055661</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>203.5253295204461</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.77659230462</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.35942226766</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369642</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261123</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,31 +5527,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615664</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334537</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673286</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.54608366783</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694715</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740623</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385789</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590556</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>2233.355914590556</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2567.280686761777</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3062.606292977536</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3659.984780604088</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3905.661761784422</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4457.571492023709</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023709</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398592</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398592</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301204</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022978</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566163</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.23547033442</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606219</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400686</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635732</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.8158034133954</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>255.5942300127259</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2019.423283183833</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1730.34805652803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1475.663568322143</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1186.246398285183</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>958.2568473871653</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>737.4642682436352</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>867.8220324314346</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612593</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.517090583878</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991042</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711973</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1276.101833227361</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.112282329344</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>3005.593896769254</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3602.972384395806</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4230.570347950413</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3079.453861511889</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C31" t="n">
-        <v>2910.517678583983</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D31" t="n">
-        <v>2760.401039171647</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E31" t="n">
-        <v>2612.487945589254</v>
+        <v>625.3800815101986</v>
       </c>
       <c r="F31" t="n">
-        <v>2612.487945589254</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2445.291846304134</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>3999.301626420637</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>3709.884456383676</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X31" t="n">
-        <v>3481.894905485659</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y31" t="n">
-        <v>3261.102326342129</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>768.5380889459586</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>618.4214495336229</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U40" t="n">
-        <v>2009.464245195835</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V40" t="n">
-        <v>1754.779756989948</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W40" t="n">
-        <v>1465.362586952987</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1237.37303605497</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1016.58045691144</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7426,34 +7426,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913854</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2978.516248701937</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>2978.516248701937</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>2828.399609289601</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>2680.486515707208</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>2680.486515707208</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376194</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650997</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305902</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328843</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673041</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430194</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532176</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>3160.164713532176</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>915.1035305473703</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>746.1673476194634</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473703</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31537720379086</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>435.6948985680601</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188872984</v>
+        <v>7.328121188872913</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.963938342844</v>
       </c>
       <c r="M3" t="n">
-        <v>184.7513690535363</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>157.9345087053518</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>80.70566279614627</v>
       </c>
       <c r="N6" t="n">
         <v>458.0981188384286</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.5475437099929</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8464,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>326.3116737658505</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>98.93303561408925</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298244</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N9" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>311.170036249301</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.814652813478007e-12</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.773338340300088e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-2.230370853753821e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>3.727996117235989</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>77.2460287070935</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>112.9489693570399</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>74.19629618688128</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>41.54258064659064</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>147.3599015160449</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>138.8202214113358</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>130.4994612393472</v>
+        <v>45.99097492814184</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>6.257951202385101</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>115.0314858713382</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>78.31512318719864</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>201.6449909028982</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>6.257951202385243</v>
       </c>
       <c r="U40" t="n">
-        <v>100.4621571004289</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>47.71290145456574</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>35.29403077242523</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813246.0393401294</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>813246.0393401294</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675048</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918869</v>
+        <v>787455.5478918871</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008500592</v>
+        <v>4906.247008500352</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765846</v>
+        <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.303402303979965e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002808</v>
+        <v>172360.9924002809</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157138</v>
+        <v>128077.5968157137</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909054</v>
+        <v>190891.9800909053</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26426,40 +26426,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707408</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.424496707412</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707415</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707422</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707425</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.42449670738</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707338</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707331</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.42449670733</v>
-      </c>
       <c r="K4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="N4" t="n">
-        <v>6897.424496707337</v>
-      </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-449066.8218550971</v>
+        <v>-449066.8218550974</v>
       </c>
       <c r="C6" t="n">
-        <v>334365.1901306177</v>
+        <v>334365.1901306179</v>
       </c>
       <c r="D6" t="n">
-        <v>339271.4371391179</v>
+        <v>339271.437139118</v>
       </c>
       <c r="E6" t="n">
-        <v>-278348.3518296949</v>
+        <v>-278695.7310840515</v>
       </c>
       <c r="F6" t="n">
-        <v>497339.9954468908</v>
+        <v>496992.6161925329</v>
       </c>
       <c r="G6" t="n">
-        <v>497339.9954468894</v>
+        <v>496992.6161925328</v>
       </c>
       <c r="H6" t="n">
-        <v>497339.9954468895</v>
+        <v>496992.6161925332</v>
       </c>
       <c r="I6" t="n">
-        <v>497339.9954468902</v>
+        <v>496992.6161925331</v>
       </c>
       <c r="J6" t="n">
-        <v>324979.0030466096</v>
+        <v>324631.6237922518</v>
       </c>
       <c r="K6" t="n">
-        <v>497339.9954468898</v>
+        <v>496992.6161925329</v>
       </c>
       <c r="L6" t="n">
-        <v>497339.9954468896</v>
+        <v>496992.616192533</v>
       </c>
       <c r="M6" t="n">
-        <v>369262.3986311763</v>
+        <v>368915.019376819</v>
       </c>
       <c r="N6" t="n">
-        <v>497339.9954468901</v>
+        <v>496992.6161925328</v>
       </c>
       <c r="O6" t="n">
-        <v>497339.9954468898</v>
+        <v>496992.6161925326</v>
       </c>
       <c r="P6" t="n">
-        <v>497339.9954468898</v>
+        <v>496992.6161925326</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.740687947520104e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.740687947520104e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.740687947520104e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.740687947520104e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.740687947520104e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225491</v>
+        <v>588.0881844225495</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26749,7 +26749,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.740687947520104e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225491</v>
+        <v>588.0881844225495</v>
       </c>
       <c r="C3" t="n">
-        <v>5.38791591551588</v>
+        <v>5.387915915515618</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451609</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.740687947520104e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359322</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>67.40001943484202</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>54.89253095380394</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.504804251688</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.504804251687787</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9304924685165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775205</v>
+        <v>18.38275699775201</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>220.5719834508244</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>171.9876793757196</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>115.7523952157329</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>243.496091227668</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27794,7 +27794,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>117.4180589448919</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>186.4887160653871</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>202.8158990312441</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>220.5373235874306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>190.8852032208401</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>126.8409723432651</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.790567694115452e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718789</v>
+        <v>2.36417360571879</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956755</v>
+        <v>24.21209293956757</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447369</v>
+        <v>91.14480293447374</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683752</v>
+        <v>200.6562795683753</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984516</v>
+        <v>300.7317482984518</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844681</v>
+        <v>373.0843262844683</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451696</v>
+        <v>415.1281986451698</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024181</v>
+        <v>421.8454069024183</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105519</v>
+        <v>398.3366556105521</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193693</v>
+        <v>339.9711197193694</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.304152464565</v>
+        <v>255.3041524645652</v>
       </c>
       <c r="R2" t="n">
-        <v>148.508520260233</v>
+        <v>148.5085202602331</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031695</v>
+        <v>53.87360604031699</v>
       </c>
       <c r="T2" t="n">
-        <v>10.349169959034</v>
+        <v>10.34916995903401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575031</v>
+        <v>0.1891338884575032</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682464</v>
+        <v>1.264944396682465</v>
       </c>
       <c r="H3" t="n">
         <v>12.21669983111749</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770765</v>
+        <v>43.55181365770768</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777937</v>
+        <v>119.5095054777938</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555188</v>
+        <v>204.2607800555189</v>
       </c>
       <c r="L3" t="n">
-        <v>274.65382613055</v>
+        <v>274.6538261305502</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102892</v>
+        <v>320.5080605102895</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704976</v>
+        <v>328.9909551704978</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808493</v>
+        <v>300.9624503808495</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489523</v>
+        <v>241.5488997489525</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361686</v>
+        <v>161.4690426361687</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910951</v>
+        <v>78.53751262910957</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820277</v>
+        <v>23.49578736820279</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908702</v>
+        <v>5.098613598908705</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753057</v>
+        <v>0.08322002609753062</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,46 +31202,46 @@
         <v>1.060486889942302</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577925</v>
+        <v>9.42869253057793</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753759</v>
+        <v>31.89173301753761</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892072</v>
+        <v>74.97642311892076</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314783</v>
+        <v>123.2092950314784</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646946</v>
+        <v>157.6654781646947</v>
       </c>
       <c r="M4" t="n">
-        <v>166.23614039341</v>
+        <v>166.2361403934101</v>
       </c>
       <c r="N4" t="n">
-        <v>162.283416530898</v>
+        <v>162.2834165308981</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983901</v>
+        <v>149.8950014983902</v>
       </c>
       <c r="P4" t="n">
-        <v>128.261068943567</v>
+        <v>128.2610689435671</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780491</v>
+        <v>88.80131584780497</v>
       </c>
       <c r="R4" t="n">
-        <v>47.6833468877693</v>
+        <v>47.68334688776932</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472174</v>
+        <v>18.48139425472175</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026196</v>
+        <v>4.531171257026199</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139833</v>
+        <v>0.05784473945139837</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>716.71805534327</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>270.4557004614709</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>451.7125911569017</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>379.5002789321558</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>502.5232631188757</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>583.0802355498158</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>430.1367711736323</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>250.3097721075164</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>235.5705495535871</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>579.8936048175469</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>567.4250434254225</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>272.756932936465</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>188.7069902137627</v>
+        <v>19.61037504168905</v>
       </c>
       <c r="K2" t="n">
-        <v>404.7873098246358</v>
+        <v>80.64189725347126</v>
       </c>
       <c r="L2" t="n">
-        <v>175.6332885182717</v>
+        <v>554.9791258649316</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107293</v>
+        <v>634.2954989107295</v>
       </c>
       <c r="N2" t="n">
-        <v>192.4323433058272</v>
+        <v>628.1272418738876</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516105</v>
+        <v>549.0386254516108</v>
       </c>
       <c r="P2" t="n">
-        <v>430.5368321355824</v>
+        <v>108.7381239640999</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011554</v>
+        <v>32.99846259011568</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937384</v>
+        <v>330.8845780937385</v>
       </c>
       <c r="L3" t="n">
-        <v>506.939791654135</v>
+        <v>436.06338469352</v>
       </c>
       <c r="M3" t="n">
-        <v>363.1253956418072</v>
+        <v>644.079090338271</v>
       </c>
       <c r="N3" t="n">
-        <v>197.6492430871643</v>
+        <v>197.6492430871645</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131344</v>
+        <v>552.2285252131346</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745592</v>
+        <v>426.0372609745594</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.5645562859962</v>
+        <v>21.48726855014718</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055954</v>
+        <v>100.9398032055955</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250107</v>
+        <v>185.2555034250108</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552506</v>
+        <v>205.8200173552507</v>
       </c>
       <c r="N4" t="n">
         <v>206.4155889101266</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124298</v>
+        <v>174.4801294124299</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084605</v>
+        <v>125.5396282084606</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.63927259611053</v>
+        <v>2.639272596110587</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>329.822413065917</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>262.0161035583733</v>
       </c>
       <c r="N6" t="n">
         <v>658.7614942451606</v>
@@ -35032,10 +35032,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>141.5141509847171</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35184,16 +35184,16 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>522.6088585052266</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>210.7858894014898</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>420.9575388021281</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>136.4812930471406</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>313.1582113770276</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193487</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>248.1585668488225</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>368.5488557045454</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>444.5258557699416</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>291.5823913937581</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>116.3353646931862</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>92.97430510914269</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>448.5518927342137</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>436.0833313420891</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>134.2025531565909</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2344774.184147826</v>
+        <v>2346534.714450612</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9385639094162</v>
+        <v>73.92455895849852</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359322</v>
+        <v>119.3310866359321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916612</v>
+        <v>1.36059768091647</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459284</v>
+        <v>155.1464635459283</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.156519019379</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>260.3522390352929</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
-        <v>98.51394015369118</v>
+        <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370739</v>
+        <v>44.34001494201961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353356</v>
+        <v>21.62032152353349</v>
       </c>
       <c r="S3" t="n">
         <v>148.187383735635</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9304924685165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>53.72197601331758</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>2.842434720432186</v>
       </c>
     </row>
     <row r="5">
@@ -913,10 +913,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>71.5447928475475</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>162.3918556850508</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>65.64892725844096</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>147.3181964444663</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>204.0601467104674</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>167.7537826418406</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>10.80420929661961</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>159.4196823148319</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>120.1447214650559</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>4.019807611472036</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365948</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>140.5758943588627</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272921</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>177.9413471369467</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>78.89395497654093</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>70.04554881124335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>240.5320234084492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>139.1630968205461</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>219.4517041866519</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>211.147499124903</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1745.386887196183</v>
+        <v>2090.358196283344</v>
       </c>
       <c r="C2" t="n">
-        <v>1745.386887196183</v>
+        <v>1721.395679342932</v>
       </c>
       <c r="D2" t="n">
-        <v>1387.121188589433</v>
+        <v>1363.129980736182</v>
       </c>
       <c r="E2" t="n">
-        <v>1001.332935991189</v>
+        <v>977.3417281379377</v>
       </c>
       <c r="F2" t="n">
-        <v>590.347031201581</v>
+        <v>566.3558233483302</v>
       </c>
       <c r="G2" t="n">
-        <v>173.2373706870191</v>
+        <v>491.6845516730792</v>
       </c>
       <c r="H2" t="n">
-        <v>173.2373706870191</v>
+        <v>173.237370687019</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088501</v>
+        <v>72.11519083088521</v>
       </c>
       <c r="K2" t="n">
-        <v>151.9506691118216</v>
+        <v>151.950669111822</v>
       </c>
       <c r="L2" t="n">
-        <v>701.3800037181038</v>
+        <v>701.3800037181045</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.332547639726</v>
+        <v>1329.332547639727</v>
       </c>
       <c r="N2" t="n">
-        <v>1951.178517094875</v>
+        <v>1951.178517094874</v>
       </c>
       <c r="O2" t="n">
         <v>2494.726756291969</v>
@@ -4354,28 +4354,28 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888807</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="S2" t="n">
         <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2262.062400382721</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="U2" t="n">
-        <v>2008.368946827792</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="V2" t="n">
-        <v>1745.386887196183</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="W2" t="n">
-        <v>1745.386887196183</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="X2" t="n">
-        <v>1745.386887196183</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="Y2" t="n">
-        <v>1745.386887196183</v>
+        <v>2476.958036347466</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507487</v>
+        <v>97.48881342044075</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>170.2762045496335</v>
       </c>
       <c r="K3" t="n">
-        <v>380.276651852414</v>
+        <v>497.8519368624348</v>
       </c>
       <c r="L3" t="n">
-        <v>811.9794026989988</v>
+        <v>999.722330600029</v>
       </c>
       <c r="M3" t="n">
-        <v>1449.617702133887</v>
+        <v>1241.641187275395</v>
       </c>
       <c r="N3" t="n">
-        <v>1645.29045279018</v>
+        <v>1437.313937931689</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.996692751183</v>
+        <v>1984.020177892692</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.773581115997</v>
+        <v>2405.797066257506</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>989.5153409857935</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C4" t="n">
-        <v>820.5791580578866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D4" t="n">
-        <v>670.4625186455509</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
-        <v>522.5494250631577</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>375.6594775652474</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>207.0428185061398</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
         <v>52.70091953961285</v>
@@ -4491,49 +4491,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131524</v>
+        <v>152.6313247131525</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039131</v>
+        <v>336.0342731039134</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856113</v>
+        <v>539.7960902856117</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066367</v>
+        <v>744.1475233066373</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249423</v>
+        <v>916.8828514249429</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351318</v>
+        <v>1041.167083351319</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221468</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221468</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221468</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="T4" t="n">
-        <v>1043.779963221468</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="U4" t="n">
-        <v>1043.779963221468</v>
+        <v>754.6272514870852</v>
       </c>
       <c r="V4" t="n">
-        <v>1043.779963221468</v>
+        <v>754.6272514870852</v>
       </c>
       <c r="W4" t="n">
-        <v>1043.779963221468</v>
+        <v>465.2100814501246</v>
       </c>
       <c r="X4" t="n">
-        <v>989.5153409857935</v>
+        <v>237.2205305521073</v>
       </c>
       <c r="Y4" t="n">
-        <v>989.5153409857935</v>
+        <v>234.3493843698525</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.0420736155681</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="C5" t="n">
-        <v>953.0420736155681</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="D5" t="n">
-        <v>953.0420736155681</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="E5" t="n">
-        <v>953.0420736155681</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F5" t="n">
-        <v>542.0561688259606</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G5" t="n">
-        <v>124.9683870623881</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
@@ -4573,13 +4573,13 @@
         <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>709.3115823537878</v>
+        <v>683.1408478992852</v>
       </c>
       <c r="M5" t="n">
-        <v>1341.029393337099</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N5" t="n">
-        <v>1968.337061396946</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O5" t="n">
         <v>2489.327531709521</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U5" t="n">
-        <v>2010.339374490333</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V5" t="n">
-        <v>1679.276487146762</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W5" t="n">
-        <v>1326.507831876648</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X5" t="n">
-        <v>953.0420736155681</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.0420736155681</v>
+        <v>1318.690691920173</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>382.1293238454227</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L6" t="n">
-        <v>519.3589218611166</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M6" t="n">
-        <v>778.7548643839062</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N6" t="n">
-        <v>1430.928743686615</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>537.5414232216112</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="C7" t="n">
-        <v>368.6052402937044</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="D7" t="n">
-        <v>218.4886008813686</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="E7" t="n">
         <v>70.57550729897547</v>
@@ -4758,19 +4758,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.635600998958</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V7" t="n">
-        <v>986.3235532631587</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W7" t="n">
-        <v>986.3235532631587</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X7" t="n">
-        <v>758.3340023651414</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="Y7" t="n">
-        <v>537.5414232216112</v>
+        <v>70.57550729897547</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1113.826147444169</v>
+        <v>547.3178008110954</v>
       </c>
       <c r="C8" t="n">
-        <v>1113.826147444169</v>
+        <v>547.3178008110954</v>
       </c>
       <c r="D8" t="n">
-        <v>1113.826147444169</v>
+        <v>547.3178008110954</v>
       </c>
       <c r="E8" t="n">
-        <v>1113.826147444169</v>
+        <v>547.3178008110954</v>
       </c>
       <c r="F8" t="n">
-        <v>907.7047871305651</v>
+        <v>540.3723000618919</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6170053669925</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>1030.215540799241</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M8" t="n">
-        <v>1216.914953624649</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>1844.222621684495</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
-        <v>2391.383826451573</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4831,25 +4831,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U8" t="n">
-        <v>2264.031077745182</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V8" t="n">
-        <v>2264.031077745182</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W8" t="n">
-        <v>2264.031077745182</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="X8" t="n">
-        <v>1890.565319484102</v>
+        <v>1324.056972851029</v>
       </c>
       <c r="Y8" t="n">
-        <v>1500.42598750829</v>
+        <v>933.9176408752171</v>
       </c>
     </row>
     <row r="9">
@@ -4892,13 +4892,13 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.27200203395</v>
+        <v>1645.695465035541</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.928743686615</v>
+        <v>2136.130580724115</v>
       </c>
       <c r="O9" t="n">
-        <v>1980.364752439338</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P9" t="n">
         <v>2404.332520920175</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>347.5039606199163</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="C10" t="n">
-        <v>347.5039606199163</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D10" t="n">
         <v>347.5039606199163</v>
@@ -4995,19 +4995,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>891.6056188627638</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>636.9211306568769</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W10" t="n">
-        <v>347.5039606199163</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="X10" t="n">
-        <v>347.5039606199163</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="Y10" t="n">
-        <v>347.5039606199163</v>
+        <v>508.5339427561102</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>1052.829365488564</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>883.8931825606569</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>733.7765431483211</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>585.863449565928</v>
       </c>
       <c r="F13" t="n">
-        <v>265.0731740618515</v>
+        <v>438.9735020680176</v>
       </c>
       <c r="G13" t="n">
-        <v>97.87707477673149</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>97.87707477673149</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1683.259960360351</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1455.270409462333</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1234.477830318803</v>
       </c>
     </row>
     <row r="14">
@@ -5272,31 +5272,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,10 +5305,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5351,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M15" t="n">
         <v>842.6091804069456</v>
@@ -5378,7 +5378,7 @@
         <v>2445.740023695907</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>869.9745311434677</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>701.0383482155609</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>550.9217088032251</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>403.008615220832</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258102</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258102</v>
       </c>
       <c r="V16" t="n">
-        <v>1797.722346028744</v>
+        <v>1789.822296052216</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1500.405126015255</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1272.415575117237</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.622995973707</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978459</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>422.7903292978459</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>422.7903292978459</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>255.5942300127259</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2126.309465880251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6420,16 +6420,16 @@
         <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.345997432834</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>923.4098145049275</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>773.2931750925917</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>625.3800815101986</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6663,10 +6663,10 @@
         <v>1722.776592304621</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.787041406604</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.994462263074</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7086,7 +7086,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7990,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>435.6948985680601</v>
+        <v>435.6948985680576</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188872913</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.963938342844</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>65.98845490199773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>391.2261292428723</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8230,7 +8230,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>80.70566279614627</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>458.0981188384286</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>37.16554713105234</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>98.93303561408925</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>294.725630339302</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-4.969912919610792e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>45.37941682721294</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>77.2460287070935</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4.84515366406859</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>74.19629618688128</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>61.40075786968296</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>147.3599015160449</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>45.99097492814184</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>6.257951202385101</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>6.257951202385243</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.257951202385243</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>881091.6054153848</v>
+        <v>881091.6054153846</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918871</v>
+        <v>787455.5478918878</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008500352</v>
+        <v>4906.24700849981</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765845</v>
+        <v>775688.3472765846</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002809</v>
+        <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157137</v>
+        <v>128077.5968157138</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909053</v>
+        <v>190891.9800909052</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26426,40 +26426,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707408</v>
+        <v>6897.424496707276</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707412</v>
+        <v>6897.424496707308</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707415</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707422</v>
+        <v>6897.424496707321</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707425</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051734</v>
+        <v>86500.62127051735</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-449066.8218550974</v>
+        <v>-449066.8218550975</v>
       </c>
       <c r="C6" t="n">
-        <v>334365.1901306179</v>
+        <v>334365.1901306184</v>
       </c>
       <c r="D6" t="n">
-        <v>339271.437139118</v>
+        <v>339271.4371391179</v>
       </c>
       <c r="E6" t="n">
-        <v>-278695.7310840515</v>
+        <v>-278383.0897551305</v>
       </c>
       <c r="F6" t="n">
-        <v>496992.6161925329</v>
+        <v>497305.2575214544</v>
       </c>
       <c r="G6" t="n">
-        <v>496992.6161925328</v>
+        <v>497305.2575214545</v>
       </c>
       <c r="H6" t="n">
-        <v>496992.6161925332</v>
+        <v>497305.2575214541</v>
       </c>
       <c r="I6" t="n">
-        <v>496992.6161925331</v>
+        <v>497305.257521454</v>
       </c>
       <c r="J6" t="n">
-        <v>324631.6237922518</v>
+        <v>324944.2651211736</v>
       </c>
       <c r="K6" t="n">
-        <v>496992.6161925329</v>
+        <v>497305.2575214542</v>
       </c>
       <c r="L6" t="n">
-        <v>496992.616192533</v>
+        <v>497305.257521454</v>
       </c>
       <c r="M6" t="n">
-        <v>368915.019376819</v>
+        <v>369227.6607057404</v>
       </c>
       <c r="N6" t="n">
-        <v>496992.6161925328</v>
+        <v>497305.257521454</v>
       </c>
       <c r="O6" t="n">
-        <v>496992.6161925326</v>
+        <v>497305.257521454</v>
       </c>
       <c r="P6" t="n">
-        <v>496992.6161925326</v>
+        <v>497305.2575214542</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.740687947520104e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.740687947520104e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.740687947520104e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.740687947520104e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.740687947520104e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225495</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.740687947520104e-14</v>
+        <v>-3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225495</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515618</v>
+        <v>5.387915915515022</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451609</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.740687947520104e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>339.0140049509178</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
-        <v>67.40001943484202</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.504804251687787</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.504804251687737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
         <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775201</v>
+        <v>18.38275699775194</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894002</v>
+        <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
         <v>205.5352037822505</v>
@@ -27593,19 +27593,19 @@
         <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2611846170395</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>171.9876793757196</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>215.7422186316626</v>
       </c>
     </row>
     <row r="5">
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>243.496091227668</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>207.3392449934182</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27830,19 +27830,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>186.4887160653871</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>71.26645690762851</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>202.8158990312441</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>245.1631213040961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>156.4426118020082</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>126.8409723432651</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.36417360571879</v>
+        <v>2.364173605718793</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956757</v>
+        <v>24.21209293956759</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447374</v>
+        <v>91.14480293447383</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683753</v>
+        <v>200.6562795683755</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984518</v>
+        <v>300.7317482984521</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844683</v>
+        <v>373.0843262844687</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451698</v>
+        <v>415.1281986451702</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024183</v>
+        <v>421.8454069024187</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105521</v>
+        <v>398.3366556105525</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193694</v>
+        <v>339.9711197193698</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645652</v>
+        <v>255.3041524645654</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602331</v>
+        <v>148.5085202602332</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031699</v>
+        <v>53.87360604031704</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903401</v>
+        <v>10.34916995903402</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575032</v>
+        <v>0.1891338884575034</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682465</v>
+        <v>1.264944396682466</v>
       </c>
       <c r="H3" t="n">
-        <v>12.21669983111749</v>
+        <v>12.2166998311175</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770768</v>
+        <v>43.55181365770773</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777938</v>
+        <v>119.5095054777939</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555189</v>
+        <v>204.2607800555191</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305502</v>
+        <v>274.6538261305504</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102895</v>
+        <v>320.5080605102897</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704978</v>
+        <v>328.9909551704981</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808495</v>
+        <v>300.9624503808498</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489525</v>
+        <v>241.5488997489527</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361687</v>
+        <v>161.4690426361689</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910957</v>
+        <v>78.53751262910964</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820279</v>
+        <v>23.49578736820281</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908705</v>
+        <v>5.09861359890871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753062</v>
+        <v>0.08322002609753071</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942302</v>
+        <v>1.060486889942303</v>
       </c>
       <c r="H4" t="n">
-        <v>9.42869253057793</v>
+        <v>9.428692530577939</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753761</v>
+        <v>31.89173301753764</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892076</v>
+        <v>74.97642311892083</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314784</v>
+        <v>123.2092950314785</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646947</v>
+        <v>157.6654781646948</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934101</v>
+        <v>166.2361403934103</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308981</v>
+        <v>162.2834165308982</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983902</v>
+        <v>149.8950014983903</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435671</v>
+        <v>128.2610689435672</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780497</v>
+        <v>88.80131584780506</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776932</v>
+        <v>47.68334688776937</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472175</v>
+        <v>18.48139425472177</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026199</v>
+        <v>4.531171257026203</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139837</v>
+        <v>0.05784473945139842</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>716.71805534327</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32086,31 +32086,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>211.3773391483997</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168905</v>
+        <v>19.61037504168925</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347126</v>
+        <v>80.64189725347154</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649316</v>
+        <v>554.9791258649318</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107295</v>
+        <v>634.29549891073</v>
       </c>
       <c r="N2" t="n">
-        <v>628.1272418738876</v>
+        <v>628.1272418738854</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516108</v>
+        <v>549.0386254516111</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239640999</v>
+        <v>108.7381239641002</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011568</v>
+        <v>32.99846259011593</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>118.762914151536</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937385</v>
+        <v>330.8845780937387</v>
       </c>
       <c r="L3" t="n">
-        <v>436.06338469352</v>
+        <v>506.9397916541354</v>
       </c>
       <c r="M3" t="n">
-        <v>644.079090338271</v>
+        <v>244.3624814902691</v>
       </c>
       <c r="N3" t="n">
-        <v>197.6492430871645</v>
+        <v>197.6492430871648</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131346</v>
+        <v>552.2285252131348</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745594</v>
+        <v>426.0372609745597</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014718</v>
+        <v>231.5645562859964</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055955</v>
+        <v>100.9398032055956</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250108</v>
+        <v>185.255503425011</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552507</v>
+        <v>205.8200173552509</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101266</v>
+        <v>206.4155889101268</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124299</v>
+        <v>174.48012941243</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084606</v>
+        <v>125.5396282084607</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110587</v>
+        <v>2.639272596110672</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>531.9621452441381</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
@@ -34950,7 +34950,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>111.8528537874005</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>262.0161035583733</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
         <v>658.7614942451606</v>
@@ -35032,10 +35032,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>146.9530496838794</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>210.7858894014898</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348621</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>495.389005746034</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>574.5840214212516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.39556506237817</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
